--- a/DB/ERD 분석 및 설계/네이버 영화 테이블 분석.xlsx
+++ b/DB/ERD 분석 및 설계/네이버 영화 테이블 분석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devs\ktds21_gitRepo\DB\ERD 분석 및 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD1333C-AA36-49A2-A9D1-3738A8FB8D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB73E2B-D494-467B-92D3-63A932A152C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" tabRatio="837" activeTab="19" xr2:uid="{BDF0EE46-C301-4B1C-92BC-503742B7FD2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" tabRatio="837" firstSheet="7" activeTab="24" xr2:uid="{BDF0EE46-C301-4B1C-92BC-503742B7FD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="영화" sheetId="1" r:id="rId1"/>
@@ -114,1420 +114,1421 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>멍뭉이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Heart Puppy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 관람가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진2</t>
+  </si>
+  <si>
+    <t>사진2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"'루니'의 새 집사를 찾아라!"</t>
+  </si>
+  <si>
+    <t>똑똑똑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knock at the Cabin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진3</t>
+  </si>
+  <si>
+    <t>사진3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑똑똑, 휴가를 즐기는 가족에게 찾아온 선택의 그림자</t>
+  </si>
+  <si>
+    <t>영화 아이디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV-20230306-00002</t>
+  </si>
+  <si>
+    <t>MV-20230306-00003</t>
+  </si>
+  <si>
+    <t>장르명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범죄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라마</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미스터리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스릴러</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV-20230306-00004</t>
+  </si>
+  <si>
+    <t>프로필 사진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김주환</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진 2</t>
+  </si>
+  <si>
+    <t>프로필 사진 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이원태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진 3</t>
+  </si>
+  <si>
+    <t>프로필 사진 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. 나이트 샤말란</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. Night Shyamalan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR-20230306-0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR-20230306-0002</t>
+  </si>
+  <si>
+    <t>DR-20230306-0003</t>
+  </si>
+  <si>
+    <t>영화 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감독 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당역할명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-20230306-00002</t>
+  </si>
+  <si>
+    <t>AC-20230306-00003</t>
+  </si>
+  <si>
+    <t>AC-20230306-00004</t>
+  </si>
+  <si>
+    <t>AC-20230306-00005</t>
+  </si>
+  <si>
+    <t>사진4</t>
+  </si>
+  <si>
+    <t>사진5</t>
+  </si>
+  <si>
+    <t>데이브 바티스타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>루퍼트 그린트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조진웅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김무열</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dave Bautista</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rupert Grint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-20230306-00006</t>
+  </si>
+  <si>
+    <t>AC-20230306-00007</t>
+  </si>
+  <si>
+    <t>사진6</t>
+  </si>
+  <si>
+    <t>사진7</t>
+  </si>
+  <si>
+    <t>유연석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차태현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안연석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주연</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전해웅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>권순태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김필도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출연종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최지영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서강호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로듀서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입사 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-20230306-00002</t>
+  </si>
+  <si>
+    <t>수입사명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜누리픽쳐스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니버설 픽쳐스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작사 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작사명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니버설픽쳐스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-20230306-00002</t>
+  </si>
+  <si>
+    <t>PC-20230306-00003</t>
+  </si>
+  <si>
+    <t>PC-20230306-00004</t>
+  </si>
+  <si>
+    <t>㈜트윈필름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜비에이엔터테인먼트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜와이웍스엔터테인먼트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜돈키호테엔터테인먼트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-20230306-00005</t>
+  </si>
+  <si>
+    <t>배급사 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배급사명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플러스엠 엔터테인먼트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT-20230306-00002</t>
+  </si>
+  <si>
+    <t>DT-20230306-00003</t>
+  </si>
+  <si>
+    <t>㈜키다리 스튜디오</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS-20230306-00002</t>
+  </si>
+  <si>
+    <t>PS-20230306-00003</t>
+  </si>
+  <si>
+    <t>PS-20230306-00004</t>
+  </si>
+  <si>
+    <t>PS-20230306-00005</t>
+  </si>
+  <si>
+    <t>PS-20230306-00006</t>
+  </si>
+  <si>
+    <t>PS-20230306-00007</t>
+  </si>
+  <si>
+    <t>PS-20230306-00008</t>
+  </si>
+  <si>
+    <t>PS-20230306-00009</t>
+  </si>
+  <si>
+    <t>PS-20230306-00010</t>
+  </si>
+  <si>
+    <t>PS-20230306-00011</t>
+  </si>
+  <si>
+    <t>PS-20230306-00012</t>
+  </si>
+  <si>
+    <t>PS-20230306-00013</t>
+  </si>
+  <si>
+    <t>PS-20230306-00014</t>
+  </si>
+  <si>
+    <t>PS-20230306-00015</t>
+  </si>
+  <si>
+    <t>썸네일1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일2</t>
+  </si>
+  <si>
+    <t>썸네일3</t>
+  </si>
+  <si>
+    <t>썸네일4</t>
+  </si>
+  <si>
+    <t>썸네일5</t>
+  </si>
+  <si>
+    <t>원본2</t>
+  </si>
+  <si>
+    <t>원본3</t>
+  </si>
+  <si>
+    <t>원본4</t>
+  </si>
+  <si>
+    <t>원본5</t>
+  </si>
+  <si>
+    <t>PP-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PP-20230306-00002</t>
+  </si>
+  <si>
+    <t>PP-20230306-00003</t>
+  </si>
+  <si>
+    <t>PP-20230306-00004</t>
+  </si>
+  <si>
+    <t>PP-20230306-00005</t>
+  </si>
+  <si>
+    <t>PR-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR-20230306-00002</t>
+  </si>
+  <si>
+    <t>PR-20230306-00003</t>
+  </si>
+  <si>
+    <t>PR-20230306-00004</t>
+  </si>
+  <si>
+    <t>PR-20230306-00005</t>
+  </si>
+  <si>
+    <t>PP-20230306-00006</t>
+  </si>
+  <si>
+    <t>PP-20230306-00007</t>
+  </si>
+  <si>
+    <t>PP-20230306-00008</t>
+  </si>
+  <si>
+    <t>PP-20230306-00009</t>
+  </si>
+  <si>
+    <t>PP-20230306-00010</t>
+  </si>
+  <si>
+    <t>PP-20230306-00011</t>
+  </si>
+  <si>
+    <t>PP-20230306-00012</t>
+  </si>
+  <si>
+    <t>PP-20230306-00013</t>
+  </si>
+  <si>
+    <t>PP-20230306-00014</t>
+  </si>
+  <si>
+    <t>PP-20230306-00015</t>
+  </si>
+  <si>
+    <t>MV-20230306-00002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VD-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VD-20230306-00002</t>
+  </si>
+  <si>
+    <t>VD-20230306-00003</t>
+  </si>
+  <si>
+    <t>VD-20230306-00004</t>
+  </si>
+  <si>
+    <t>VD-20230306-00005</t>
+  </si>
+  <si>
+    <t>VD-20230306-00006</t>
+  </si>
+  <si>
+    <t>리뷰 예고편</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 예고편</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>티저 예고편</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급 유출 대외비 영상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 주소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.02.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.02.28</t>
+  </si>
+  <si>
+    <t>2023.02.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 주소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM-20230306-00002</t>
+  </si>
+  <si>
+    <t>VM-20230306-00003</t>
+  </si>
+  <si>
+    <t>VM-20230306-00004</t>
+  </si>
+  <si>
+    <t>2차 예고편</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 예고편</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-DOG 영상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작기 영상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.03.02</t>
+  </si>
+  <si>
+    <t>2023.03.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VD-20230306-00007</t>
+  </si>
+  <si>
+    <t>VD-20230306-00008</t>
+  </si>
+  <si>
+    <t>VD-20230306-00009</t>
+  </si>
+  <si>
+    <t>낯선 방문자들로 인해 부서지는 평화로운 순간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인류의 멸망 vs 가족의 희생 당신의 선택은?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.02.09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.02.23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.02.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명대사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명대사 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예수님입니다, 부활 하셨거든</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.03.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoog</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록자명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL-20230306-00002</t>
+  </si>
+  <si>
+    <t>FL-20230306-00003</t>
+  </si>
+  <si>
+    <t>FL-20230306-00004</t>
+  </si>
+  <si>
+    <t>원래 세상은 더럽고 인생은 서럽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.03.03</t>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 꿈만큼은 팔고 싶지 않아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려견은 집에 놓는 소품이 아닙니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위코드 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001_02</t>
+  </si>
+  <si>
+    <t>001_03</t>
+  </si>
+  <si>
+    <t>상영종료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7세 관람가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12세 관람가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19세 관람가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>002_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>002_02</t>
+  </si>
+  <si>
+    <t>002_03</t>
+  </si>
+  <si>
+    <t>002_04</t>
+  </si>
+  <si>
+    <t>002_05</t>
+  </si>
+  <si>
+    <t>PT-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT-20230306-00002</t>
+  </si>
+  <si>
+    <t>PT-20230306-00003</t>
+  </si>
+  <si>
+    <t>PT-20230306-00004</t>
+  </si>
+  <si>
+    <t>PT-20230306-00005</t>
+  </si>
+  <si>
+    <t>PT-20230306-00006</t>
+  </si>
+  <si>
+    <t>PT-20230306-00007</t>
+  </si>
+  <si>
+    <t>PT-20230306-00008</t>
+  </si>
+  <si>
+    <t>PT-20230306-00009</t>
+  </si>
+  <si>
+    <t>PT-20230306-00010</t>
+  </si>
+  <si>
+    <t>PT-20230306-00011</t>
+  </si>
+  <si>
+    <t>PT-20230306-00012</t>
+  </si>
+  <si>
+    <t>PT-20230306-00013</t>
+  </si>
+  <si>
+    <t>PT-20230306-00014</t>
+  </si>
+  <si>
+    <t>PT-20230306-00015</t>
+  </si>
+  <si>
+    <t>PT-20230306-00016</t>
+  </si>
+  <si>
+    <t>PT-20230306-00017</t>
+  </si>
+  <si>
+    <t>PT-20230306-00018</t>
+  </si>
+  <si>
+    <t>PT-20230306-00019</t>
+  </si>
+  <si>
+    <t>PT-20230306-00020</t>
+  </si>
+  <si>
+    <t>PT-20230306-00021</t>
+  </si>
+  <si>
+    <t>PT-20230306-00022</t>
+  </si>
+  <si>
+    <t>PT-20230306-00023</t>
+  </si>
+  <si>
+    <t>PT-20230306-00024</t>
+  </si>
+  <si>
+    <t>PT-20230306-00025</t>
+  </si>
+  <si>
+    <t>PT-20230306-00026</t>
+  </si>
+  <si>
+    <t>PT-20230306-00027</t>
+  </si>
+  <si>
+    <t>PT-20230306-00028</t>
+  </si>
+  <si>
+    <t>PT-20230306-00029</t>
+  </si>
+  <si>
+    <t>PT-20230306-00030</t>
+  </si>
+  <si>
+    <t>PT-20230306-00031</t>
+  </si>
+  <si>
+    <t>PT-20230306-00032</t>
+  </si>
+  <si>
+    <t>PT-20230306-00033</t>
+  </si>
+  <si>
+    <t>PT-20230306-00034</t>
+  </si>
+  <si>
+    <t>PT-20230306-00035</t>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스틸컷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로모션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>003_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>003_02</t>
+  </si>
+  <si>
+    <t>003_03</t>
+  </si>
+  <si>
+    <t>003_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>003_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>004_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>004_02</t>
+  </si>
+  <si>
+    <t>004_03</t>
+  </si>
+  <si>
+    <t>004_04</t>
+  </si>
+  <si>
+    <t>예고편</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤직비디오</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이킹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터뷰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VD-20230306-00010</t>
+  </si>
+  <si>
+    <t>VD-20230306-00011</t>
+  </si>
+  <si>
+    <t>VD-20230306-00012</t>
+  </si>
+  <si>
+    <t>VD-20230306-00013</t>
+  </si>
+  <si>
+    <t>004_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배급</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO-20230306-00002</t>
+  </si>
+  <si>
+    <t>CO-20230306-00003</t>
+  </si>
+  <si>
+    <t>CO-20230306-00004</t>
+  </si>
+  <si>
+    <t>CO-20230306-00005</t>
+  </si>
+  <si>
+    <t>CO-20230306-00006</t>
+  </si>
+  <si>
+    <t>CO-20230306-00007</t>
+  </si>
+  <si>
+    <t>CO-20230306-00008</t>
+  </si>
+  <si>
+    <t>PD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화인 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감독</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-20230306-00002</t>
+  </si>
+  <si>
+    <t>PD-20230306-00003</t>
+  </si>
+  <si>
+    <t>PD-20230306-00004</t>
+  </si>
+  <si>
+    <t>PD-20230306-00005</t>
+  </si>
+  <si>
+    <t>PD-20230306-00008</t>
+  </si>
+  <si>
+    <t>PD-20230306-00008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-20230306-00009</t>
+  </si>
+  <si>
+    <t>PD-20230306-00009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-20230306-00010</t>
+  </si>
+  <si>
+    <t>PD-20230306-00010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-20230306-00006</t>
+  </si>
+  <si>
+    <t>PD-20230306-00007</t>
+  </si>
+  <si>
+    <t>PD-20230306-00011</t>
+  </si>
+  <si>
+    <t>PD-20230306-00012</t>
+  </si>
+  <si>
+    <t>역할 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>005_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>005_02</t>
+  </si>
+  <si>
+    <t>005_03</t>
+  </si>
+  <si>
+    <t>005_04</t>
+  </si>
+  <si>
+    <t>005_05</t>
+  </si>
+  <si>
+    <t>조연</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-20230306-00006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>005_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>005_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>005_04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작참여 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP-20230306-00002</t>
+  </si>
+  <si>
+    <t>MP-20230306-00003</t>
+  </si>
+  <si>
+    <t>MP-20230306-00004</t>
+  </si>
+  <si>
+    <t>MP-20230306-00005</t>
+  </si>
+  <si>
+    <t>MP-20230306-00006</t>
+  </si>
+  <si>
+    <t>MP-20230306-00007</t>
+  </si>
+  <si>
+    <t>MP-20230306-00008</t>
+  </si>
+  <si>
+    <t>MP-20230306-00009</t>
+  </si>
+  <si>
+    <t>MP-20230306-00010</t>
+  </si>
+  <si>
+    <t>MP-20230306-00011</t>
+  </si>
+  <si>
+    <t>MP-20230306-00012</t>
+  </si>
+  <si>
+    <t>CO-20230306-00002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO-20230306-00007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO-20230306-00005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV-20230306-00003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작참여사 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC-20230306-00002</t>
+  </si>
+  <si>
+    <t>MC-20230306-00003</t>
+  </si>
+  <si>
+    <t>MC-20230306-00004</t>
+  </si>
+  <si>
+    <t>MC-20230306-00005</t>
+  </si>
+  <si>
+    <t>MC-20230306-00006</t>
+  </si>
+  <si>
+    <t>MC-20230306-00007</t>
+  </si>
+  <si>
+    <t>MC-20230306-00008</t>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>006_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>006_02</t>
+  </si>
+  <si>
+    <t>006_03</t>
+  </si>
+  <si>
+    <t>006_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>006_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫어요 수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위댓글 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR-20230306-00002</t>
+  </si>
+  <si>
+    <t>COK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라더주니</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.02.22 03:17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.29 19:25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>식상,,,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋ대외비라고 하는데 누군지 다 알듯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-20230306-00012</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD-20230306-00011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR-20230306-00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR-20230306-00002</t>
+  </si>
+  <si>
+    <t>MR-20230306-00003</t>
+  </si>
+  <si>
+    <t>MR-20230306-00004</t>
+  </si>
+  <si>
+    <t>이거 본 걸 비밀로 해야돼서 대외비임</t>
+  </si>
+  <si>
+    <t>객 왜 개봉일날 봤는지 후회가 됩니다. 기다렸다가 평점 볼걸..ㅎㅎ</t>
+  </si>
+  <si>
+    <t>kkkkk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amyj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁금소년</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>객 골격근량 50kg 남성입니다.30번 울었습니다.</t>
+  </si>
+  <si>
+    <t>요즘 보기힘든 무해하고 유쾌한 한국영화 ㅠㅠ 멍뭉이들 너무 귀여운거 유죄</t>
+  </si>
+  <si>
+    <t>2023.03.01 17:12</t>
+  </si>
+  <si>
+    <t>2023.03.01 14:48</t>
+  </si>
+  <si>
+    <t>2023.03.01 21:13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.03.01 11:13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1992년 부산, 만년 국회의원 후보 해웅과 정치판의 숨은 실세 순태, 행동파 조폭 필도가 대한민국을 뒤흔들 비밀 문서를 손에 쥐고 판을 뒤집기 위한 치열한 쟁탈전을 벌이는 범죄드라마</t>
-  </si>
-  <si>
-    <t>멍뭉이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Heart Puppy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 관람가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진2</t>
-  </si>
-  <si>
-    <t>사진2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"'루니'의 새 집사를 찾아라!"</t>
-  </si>
-  <si>
-    <t>똑똑똑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knock at the Cabin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개봉예정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진3</t>
-  </si>
-  <si>
-    <t>사진3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>똑똑똑, 휴가를 즐기는 가족에게 찾아온 선택의 그림자</t>
-  </si>
-  <si>
-    <t>영화 아이디</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV-20230306-00002</t>
-  </si>
-  <si>
-    <t>MV-20230306-00003</t>
-  </si>
-  <si>
-    <t>장르명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>범죄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라마</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미스터리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스릴러</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV-20230306-00004</t>
-  </si>
-  <si>
-    <t>프로필 사진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 사진 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김주환</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 사진 2</t>
-  </si>
-  <si>
-    <t>프로필 사진 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이원태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 사진 3</t>
-  </si>
-  <si>
-    <t>프로필 사진 3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M. 나이트 샤말란</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M. Night Shyamalan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DR-20230306-0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DR-20230306-0002</t>
-  </si>
-  <si>
-    <t>DR-20230306-0003</t>
-  </si>
-  <si>
-    <t>영화 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>감독 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>배우 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당역할명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC-20230306-00002</t>
-  </si>
-  <si>
-    <t>AC-20230306-00003</t>
-  </si>
-  <si>
-    <t>AC-20230306-00004</t>
-  </si>
-  <si>
-    <t>AC-20230306-00005</t>
-  </si>
-  <si>
-    <t>사진4</t>
-  </si>
-  <si>
-    <t>사진5</t>
-  </si>
-  <si>
-    <t>데이브 바티스타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>루퍼트 그린트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조진웅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이성민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김무열</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dave Bautista</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rupert Grint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC-20230306-00006</t>
-  </si>
-  <si>
-    <t>AC-20230306-00007</t>
-  </si>
-  <si>
-    <t>사진6</t>
-  </si>
-  <si>
-    <t>사진7</t>
-  </si>
-  <si>
-    <t>유연석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>차태현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안연석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주연</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>본명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전해웅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>권순태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김필도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>출연종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장르 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최지영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서강호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로듀서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수입사 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-20230306-00002</t>
-  </si>
-  <si>
-    <t>수입사명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜누리픽쳐스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니버설 픽쳐스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작사 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작사명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니버설픽쳐스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC-20230306-00002</t>
-  </si>
-  <si>
-    <t>PC-20230306-00003</t>
-  </si>
-  <si>
-    <t>PC-20230306-00004</t>
-  </si>
-  <si>
-    <t>㈜트윈필름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜비에이엔터테인먼트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜와이웍스엔터테인먼트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜돈키호테엔터테인먼트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC-20230306-00005</t>
-  </si>
-  <si>
-    <t>배급사 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>배급사명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>플러스엠 엔터테인먼트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT-20230306-00002</t>
-  </si>
-  <si>
-    <t>DT-20230306-00003</t>
-  </si>
-  <si>
-    <t>㈜키다리 스튜디오</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS-20230306-00002</t>
-  </si>
-  <si>
-    <t>PS-20230306-00003</t>
-  </si>
-  <si>
-    <t>PS-20230306-00004</t>
-  </si>
-  <si>
-    <t>PS-20230306-00005</t>
-  </si>
-  <si>
-    <t>PS-20230306-00006</t>
-  </si>
-  <si>
-    <t>PS-20230306-00007</t>
-  </si>
-  <si>
-    <t>PS-20230306-00008</t>
-  </si>
-  <si>
-    <t>PS-20230306-00009</t>
-  </si>
-  <si>
-    <t>PS-20230306-00010</t>
-  </si>
-  <si>
-    <t>PS-20230306-00011</t>
-  </si>
-  <si>
-    <t>PS-20230306-00012</t>
-  </si>
-  <si>
-    <t>PS-20230306-00013</t>
-  </si>
-  <si>
-    <t>PS-20230306-00014</t>
-  </si>
-  <si>
-    <t>PS-20230306-00015</t>
-  </si>
-  <si>
-    <t>썸네일1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일2</t>
-  </si>
-  <si>
-    <t>썸네일3</t>
-  </si>
-  <si>
-    <t>썸네일4</t>
-  </si>
-  <si>
-    <t>썸네일5</t>
-  </si>
-  <si>
-    <t>원본2</t>
-  </si>
-  <si>
-    <t>원본3</t>
-  </si>
-  <si>
-    <t>원본4</t>
-  </si>
-  <si>
-    <t>원본5</t>
-  </si>
-  <si>
-    <t>PP-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PP-20230306-00002</t>
-  </si>
-  <si>
-    <t>PP-20230306-00003</t>
-  </si>
-  <si>
-    <t>PP-20230306-00004</t>
-  </si>
-  <si>
-    <t>PP-20230306-00005</t>
-  </si>
-  <si>
-    <t>PR-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PR-20230306-00002</t>
-  </si>
-  <si>
-    <t>PR-20230306-00003</t>
-  </si>
-  <si>
-    <t>PR-20230306-00004</t>
-  </si>
-  <si>
-    <t>PR-20230306-00005</t>
-  </si>
-  <si>
-    <t>PP-20230306-00006</t>
-  </si>
-  <si>
-    <t>PP-20230306-00007</t>
-  </si>
-  <si>
-    <t>PP-20230306-00008</t>
-  </si>
-  <si>
-    <t>PP-20230306-00009</t>
-  </si>
-  <si>
-    <t>PP-20230306-00010</t>
-  </si>
-  <si>
-    <t>PP-20230306-00011</t>
-  </si>
-  <si>
-    <t>PP-20230306-00012</t>
-  </si>
-  <si>
-    <t>PP-20230306-00013</t>
-  </si>
-  <si>
-    <t>PP-20230306-00014</t>
-  </si>
-  <si>
-    <t>PP-20230306-00015</t>
-  </si>
-  <si>
-    <t>MV-20230306-00002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>동영상 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>재생수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VD-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VD-20230306-00002</t>
-  </si>
-  <si>
-    <t>VD-20230306-00003</t>
-  </si>
-  <si>
-    <t>VD-20230306-00004</t>
-  </si>
-  <si>
-    <t>VD-20230306-00005</t>
-  </si>
-  <si>
-    <t>VD-20230306-00006</t>
-  </si>
-  <si>
-    <t>리뷰 예고편</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 예고편</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>티저 예고편</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특급 유출 대외비 영상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸네일 주소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.02.27</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.02.28</t>
-  </si>
-  <si>
-    <t>2023.02.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.27</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>동영상 주소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VM-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VM-20230306-00002</t>
-  </si>
-  <si>
-    <t>VM-20230306-00003</t>
-  </si>
-  <si>
-    <t>VM-20230306-00004</t>
-  </si>
-  <si>
-    <t>2차 예고편</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 예고편</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>V-DOG 영상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작기 영상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.03.02</t>
-  </si>
-  <si>
-    <t>2023.03.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VD-20230306-00007</t>
-  </si>
-  <si>
-    <t>VD-20230306-00008</t>
-  </si>
-  <si>
-    <t>VD-20230306-00009</t>
-  </si>
-  <si>
-    <t>낯선 방문자들로 인해 부서지는 평화로운 순간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인류의 멸망 vs 가족의 희생 당신의 선택은?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.02.09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.02.23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.02.16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명대사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명대사 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FL-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>예수님입니다, 부활 하셨거든</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.03.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>yoog</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록자명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FL-20230306-00002</t>
-  </si>
-  <si>
-    <t>FL-20230306-00003</t>
-  </si>
-  <si>
-    <t>FL-20230306-00004</t>
-  </si>
-  <si>
-    <t>원래 세상은 더럽고 인생은 서럽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.03.03</t>
-  </si>
-  <si>
-    <t>miss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 꿈만큼은 팔고 싶지 않아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>반려견은 집에 놓는 소품이 아닙니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대한민국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위코드 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>001_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>001_02</t>
-  </si>
-  <si>
-    <t>001_03</t>
-  </si>
-  <si>
-    <t>상영종료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7세 관람가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12세 관람가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19세 관람가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>002_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>002_02</t>
-  </si>
-  <si>
-    <t>002_03</t>
-  </si>
-  <si>
-    <t>002_04</t>
-  </si>
-  <si>
-    <t>002_05</t>
-  </si>
-  <si>
-    <t>PT-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PT-20230306-00002</t>
-  </si>
-  <si>
-    <t>PT-20230306-00003</t>
-  </si>
-  <si>
-    <t>PT-20230306-00004</t>
-  </si>
-  <si>
-    <t>PT-20230306-00005</t>
-  </si>
-  <si>
-    <t>PT-20230306-00006</t>
-  </si>
-  <si>
-    <t>PT-20230306-00007</t>
-  </si>
-  <si>
-    <t>PT-20230306-00008</t>
-  </si>
-  <si>
-    <t>PT-20230306-00009</t>
-  </si>
-  <si>
-    <t>PT-20230306-00010</t>
-  </si>
-  <si>
-    <t>PT-20230306-00011</t>
-  </si>
-  <si>
-    <t>PT-20230306-00012</t>
-  </si>
-  <si>
-    <t>PT-20230306-00013</t>
-  </si>
-  <si>
-    <t>PT-20230306-00014</t>
-  </si>
-  <si>
-    <t>PT-20230306-00015</t>
-  </si>
-  <si>
-    <t>PT-20230306-00016</t>
-  </si>
-  <si>
-    <t>PT-20230306-00017</t>
-  </si>
-  <si>
-    <t>PT-20230306-00018</t>
-  </si>
-  <si>
-    <t>PT-20230306-00019</t>
-  </si>
-  <si>
-    <t>PT-20230306-00020</t>
-  </si>
-  <si>
-    <t>PT-20230306-00021</t>
-  </si>
-  <si>
-    <t>PT-20230306-00022</t>
-  </si>
-  <si>
-    <t>PT-20230306-00023</t>
-  </si>
-  <si>
-    <t>PT-20230306-00024</t>
-  </si>
-  <si>
-    <t>PT-20230306-00025</t>
-  </si>
-  <si>
-    <t>PT-20230306-00026</t>
-  </si>
-  <si>
-    <t>PT-20230306-00027</t>
-  </si>
-  <si>
-    <t>PT-20230306-00028</t>
-  </si>
-  <si>
-    <t>PT-20230306-00029</t>
-  </si>
-  <si>
-    <t>PT-20230306-00030</t>
-  </si>
-  <si>
-    <t>PT-20230306-00031</t>
-  </si>
-  <si>
-    <t>PT-20230306-00032</t>
-  </si>
-  <si>
-    <t>PT-20230306-00033</t>
-  </si>
-  <si>
-    <t>PT-20230306-00034</t>
-  </si>
-  <si>
-    <t>PT-20230306-00035</t>
-  </si>
-  <si>
-    <t>003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스틸컷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로모션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>003_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>003_02</t>
-  </si>
-  <si>
-    <t>003_03</t>
-  </si>
-  <si>
-    <t>003_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>003_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>동영상 종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>004_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>004_02</t>
-  </si>
-  <si>
-    <t>004_03</t>
-  </si>
-  <si>
-    <t>004_04</t>
-  </si>
-  <si>
-    <t>예고편</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뮤직비디오</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이킹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터뷰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VD-20230306-00010</t>
-  </si>
-  <si>
-    <t>VD-20230306-00011</t>
-  </si>
-  <si>
-    <t>VD-20230306-00012</t>
-  </si>
-  <si>
-    <t>VD-20230306-00013</t>
-  </si>
-  <si>
-    <t>004_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>001_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>배급</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO-20230306-00002</t>
-  </si>
-  <si>
-    <t>CO-20230306-00003</t>
-  </si>
-  <si>
-    <t>CO-20230306-00004</t>
-  </si>
-  <si>
-    <t>CO-20230306-00005</t>
-  </si>
-  <si>
-    <t>CO-20230306-00006</t>
-  </si>
-  <si>
-    <t>CO-20230306-00007</t>
-  </si>
-  <si>
-    <t>CO-20230306-00008</t>
-  </si>
-  <si>
-    <t>PD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화인 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>감독</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-20230306-00002</t>
-  </si>
-  <si>
-    <t>PD-20230306-00003</t>
-  </si>
-  <si>
-    <t>PD-20230306-00004</t>
-  </si>
-  <si>
-    <t>PD-20230306-00005</t>
-  </si>
-  <si>
-    <t>PD-20230306-00008</t>
-  </si>
-  <si>
-    <t>PD-20230306-00008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-20230306-00009</t>
-  </si>
-  <si>
-    <t>PD-20230306-00009</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-20230306-00010</t>
-  </si>
-  <si>
-    <t>PD-20230306-00010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-20230306-00006</t>
-  </si>
-  <si>
-    <t>PD-20230306-00007</t>
-  </si>
-  <si>
-    <t>PD-20230306-00011</t>
-  </si>
-  <si>
-    <t>PD-20230306-00012</t>
-  </si>
-  <si>
-    <t>역할 종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_02</t>
-  </si>
-  <si>
-    <t>005_03</t>
-  </si>
-  <si>
-    <t>005_04</t>
-  </si>
-  <si>
-    <t>005_05</t>
-  </si>
-  <si>
-    <t>조연</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-20230306-00006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작참여 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP-20230306-00002</t>
-  </si>
-  <si>
-    <t>MP-20230306-00003</t>
-  </si>
-  <si>
-    <t>MP-20230306-00004</t>
-  </si>
-  <si>
-    <t>MP-20230306-00005</t>
-  </si>
-  <si>
-    <t>MP-20230306-00006</t>
-  </si>
-  <si>
-    <t>MP-20230306-00007</t>
-  </si>
-  <si>
-    <t>MP-20230306-00008</t>
-  </si>
-  <si>
-    <t>MP-20230306-00009</t>
-  </si>
-  <si>
-    <t>MP-20230306-00010</t>
-  </si>
-  <si>
-    <t>MP-20230306-00011</t>
-  </si>
-  <si>
-    <t>MP-20230306-00012</t>
-  </si>
-  <si>
-    <t>CO-20230306-00002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO-20230306-00007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO-20230306-00005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV-20230306-00003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작참여사 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MC-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MC-20230306-00002</t>
-  </si>
-  <si>
-    <t>MC-20230306-00003</t>
-  </si>
-  <si>
-    <t>MC-20230306-00004</t>
-  </si>
-  <si>
-    <t>MC-20230306-00005</t>
-  </si>
-  <si>
-    <t>MC-20230306-00006</t>
-  </si>
-  <si>
-    <t>MC-20230306-00007</t>
-  </si>
-  <si>
-    <t>MC-20230306-00008</t>
-  </si>
-  <si>
-    <t>006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유통 종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>006_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>006_02</t>
-  </si>
-  <si>
-    <t>006_03</t>
-  </si>
-  <si>
-    <t>006_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>006_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요 수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>싫어요 수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위댓글 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VR-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VR-20230306-00002</t>
-  </si>
-  <si>
-    <t>COK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>브라더주니</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.02.22 03:17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.29 19:25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>식상,,,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋ대외비라고 하는데 누군지 다 알듯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-20230306-00012</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD-20230306-00011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MR-20230306-00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MR-20230306-00002</t>
-  </si>
-  <si>
-    <t>MR-20230306-00003</t>
-  </si>
-  <si>
-    <t>MR-20230306-00004</t>
-  </si>
-  <si>
-    <t>이거 본 걸 비밀로 해야돼서 대외비임</t>
-  </si>
-  <si>
-    <t>객 왜 개봉일날 봤는지 후회가 됩니다. 기다렸다가 평점 볼걸..ㅎㅎ</t>
-  </si>
-  <si>
-    <t>kkkkk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>amyj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁금소년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>객 골격근량 50kg 남성입니다.30번 울었습니다.</t>
-  </si>
-  <si>
-    <t>요즘 보기힘든 무해하고 유쾌한 한국영화 ㅠㅠ 멍뭉이들 너무 귀여운거 유죄</t>
-  </si>
-  <si>
-    <t>2023.03.01 17:12</t>
-  </si>
-  <si>
-    <t>2023.03.01 14:48</t>
-  </si>
-  <si>
-    <t>2023.03.01 21:13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.03.01 11:13</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2024,7 +2025,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2038,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2067,7 +2068,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2076,7 +2077,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2">
         <v>116</v>
@@ -2085,27 +2086,27 @@
         <v>44986</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3">
         <v>113</v>
@@ -2114,27 +2115,27 @@
         <v>44986</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2143,13 +2144,13 @@
         <v>44993</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2175,114 +2176,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2311,114 +2312,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +2434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2444,74 +2445,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" t="s">
         <v>302</v>
-      </c>
-      <c r="B1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2537,128 +2538,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2687,18 +2688,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2723,26 +2724,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2767,50 +2768,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2835,50 +2836,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2903,34 +2904,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2955,34 +2956,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3012,15 +3013,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3028,7 +3029,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3036,7 +3037,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3052,7 +3053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667F942A-6E3F-4DE7-B1FC-D8AC11250F61}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
@@ -3066,614 +3067,614 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
         <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
         <v>134</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
         <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
         <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
         <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
         <v>134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
         <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3699,226 +3700,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
         <v>134</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
         <v>134</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3943,86 +3944,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4047,226 +4048,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
         <v>134</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
         <v>134</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4294,28 +4295,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>380</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4433,7 +4434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF13067-E8B4-46D6-96DC-8CBA6F7D2C2D}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -4452,366 +4453,366 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" t="s">
         <v>167</v>
-      </c>
-      <c r="G1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2">
         <v>58000</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3">
         <v>3700</v>
       </c>
       <c r="G3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4">
         <v>8200</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
         <v>178</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
       </c>
       <c r="F5">
         <v>230000</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6">
         <v>33000</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7">
         <v>83000</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8">
         <v>1600</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9">
         <v>3300</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10">
         <v>12000</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11">
         <v>58000</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F12">
         <v>3700</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F13">
         <v>11000</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
         <v>299</v>
       </c>
-      <c r="B14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" t="s">
-        <v>300</v>
-      </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14">
         <v>28000</v>
       </c>
       <c r="G14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4840,232 +4841,232 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
         <v>167</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2">
         <v>58000</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3">
         <v>3700</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>8200</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
         <v>178</v>
-      </c>
-      <c r="D5" t="s">
-        <v>179</v>
       </c>
       <c r="E5">
         <v>230000</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6">
         <v>33000</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>83000</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8">
         <v>1600</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9">
         <v>3300</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10">
         <v>12000</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5090,25 +5091,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
         <v>167</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5138,117 +5139,117 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
         <v>167</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2">
         <v>58000</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3">
         <v>3700</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>11000</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>28000</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5274,25 +5275,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
         <v>167</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5316,10 +5317,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5327,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5335,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5343,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5374,45 +5375,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>380</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5421,24 +5422,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5447,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5575,51 +5576,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" t="s">
-        <v>205</v>
-      </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" t="s">
         <v>212</v>
-      </c>
-      <c r="H1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
         <v>207</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>208</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>209</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>210</v>
-      </c>
-      <c r="G2" t="s">
-        <v>211</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -5627,25 +5628,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" t="s">
         <v>209</v>
       </c>
-      <c r="F3" t="s">
-        <v>210</v>
-      </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -5653,25 +5654,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -5679,25 +5680,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -5737,48 +5738,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>397</v>
-      </c>
       <c r="D1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" t="s">
         <v>391</v>
       </c>
-      <c r="F1" t="s">
-        <v>392</v>
-      </c>
       <c r="G1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" t="s">
         <v>380</v>
-      </c>
-      <c r="H1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G2">
         <v>615</v>
@@ -5789,22 +5790,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G3">
         <v>391</v>
@@ -5815,22 +5816,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G4">
         <v>230</v>
@@ -5841,22 +5842,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G5">
         <v>98</v>
@@ -5889,332 +5890,332 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
         <v>225</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
         <v>232</v>
       </c>
-      <c r="B5" t="s">
-        <v>233</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
         <v>286</v>
       </c>
-      <c r="B16" t="s">
-        <v>287</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" t="s">
         <v>340</v>
       </c>
-      <c r="B26" t="s">
-        <v>341</v>
-      </c>
       <c r="C26" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" t="s">
         <v>372</v>
       </c>
-      <c r="B27" t="s">
-        <v>373</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6239,15 +6240,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6255,7 +6256,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6263,7 +6264,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6271,7 +6272,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -6279,7 +6280,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -6297,7 +6298,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6307,10 +6308,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6318,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6326,7 +6327,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6334,7 +6335,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6342,7 +6343,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6368,34 +6369,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6422,58 +6423,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6501,223 +6502,223 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -6746,7 +6747,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6758,220 +6759,220 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
